--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F2-F2rl3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F2-F2rl3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H2">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I2">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J2">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.547712</v>
+        <v>4.116622666666667</v>
       </c>
       <c r="N2">
-        <v>19.643136</v>
+        <v>12.349868</v>
       </c>
       <c r="O2">
-        <v>0.8250438103294409</v>
+        <v>0.6858474422962195</v>
       </c>
       <c r="P2">
-        <v>0.8466783202842558</v>
+        <v>0.7039698681715405</v>
       </c>
       <c r="Q2">
-        <v>6.182727255125333</v>
+        <v>3.691225974576445</v>
       </c>
       <c r="R2">
-        <v>55.64454529612799</v>
+        <v>33.221033771188</v>
       </c>
       <c r="S2">
-        <v>0.340181937388786</v>
+        <v>0.2295703834637573</v>
       </c>
       <c r="T2">
-        <v>0.3729929299125873</v>
+        <v>0.2567632139854968</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H3">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I3">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J3">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.561161</v>
       </c>
       <c r="O3">
-        <v>0.06557131305193428</v>
+        <v>0.0866987630039939</v>
       </c>
       <c r="P3">
-        <v>0.06729074080499615</v>
+        <v>0.08898963967586941</v>
       </c>
       <c r="Q3">
-        <v>0.4913794143836666</v>
+        <v>0.4666121155056666</v>
       </c>
       <c r="R3">
-        <v>4.422414729452999</v>
+        <v>4.199509039551</v>
       </c>
       <c r="S3">
-        <v>0.0270363537449323</v>
+        <v>0.02902025587793025</v>
       </c>
       <c r="T3">
-        <v>0.02964404540371072</v>
+        <v>0.03245773282020602</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H4">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I4">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J4">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1120373333333333</v>
+        <v>0.4875800000000001</v>
       </c>
       <c r="N4">
-        <v>0.336112</v>
+        <v>1.46274</v>
       </c>
       <c r="O4">
-        <v>0.01411725323173698</v>
+        <v>0.08123297250985777</v>
       </c>
       <c r="P4">
-        <v>0.01448743945912617</v>
+        <v>0.08337942437678193</v>
       </c>
       <c r="Q4">
-        <v>0.1057921109528889</v>
+        <v>0.4371952705933334</v>
       </c>
       <c r="R4">
-        <v>0.9521289985759999</v>
+        <v>3.93475743534</v>
       </c>
       <c r="S4">
-        <v>0.005820823688214532</v>
+        <v>0.02719071837106084</v>
       </c>
       <c r="T4">
-        <v>0.006382249741526991</v>
+        <v>0.03041148485353411</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H5">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I5">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J5">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6083624999999999</v>
+        <v>0.4635505</v>
       </c>
       <c r="N5">
-        <v>1.216725</v>
+        <v>0.927101</v>
       </c>
       <c r="O5">
-        <v>0.07665665732725331</v>
+        <v>0.07722955212156121</v>
       </c>
       <c r="P5">
-        <v>0.0524445118767116</v>
+        <v>0.05284681332235319</v>
       </c>
       <c r="Q5">
-        <v>0.5744509547375</v>
+        <v>0.4156488910151666</v>
       </c>
       <c r="R5">
-        <v>3.446705728425</v>
+        <v>2.493893346091</v>
       </c>
       <c r="S5">
-        <v>0.03160706119705407</v>
+        <v>0.02585067290755247</v>
       </c>
       <c r="T5">
-        <v>0.02310373570940469</v>
+        <v>0.01927513981924083</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H6">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I6">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J6">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1477003333333333</v>
+        <v>0.4141023333333333</v>
       </c>
       <c r="N6">
-        <v>0.443101</v>
+        <v>1.242307</v>
       </c>
       <c r="O6">
-        <v>0.01861096605963455</v>
+        <v>0.06899127006836749</v>
       </c>
       <c r="P6">
-        <v>0.01909898757491034</v>
+        <v>0.07081425445345503</v>
       </c>
       <c r="Q6">
-        <v>0.1394671721192222</v>
+        <v>0.3713105165818888</v>
       </c>
       <c r="R6">
-        <v>1.255204549073</v>
+        <v>3.341794649236999</v>
       </c>
       <c r="S6">
-        <v>0.007673670672488775</v>
+        <v>0.02309311276604008</v>
       </c>
       <c r="T6">
-        <v>0.008413806239349834</v>
+        <v>0.02582851396279544</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H7">
         <v>2.048396</v>
       </c>
       <c r="I7">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J7">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.547712</v>
+        <v>4.116622666666667</v>
       </c>
       <c r="N7">
-        <v>19.643136</v>
+        <v>12.349868</v>
       </c>
       <c r="O7">
-        <v>0.8250438103294409</v>
+        <v>0.6858474422962195</v>
       </c>
       <c r="P7">
-        <v>0.8466783202842558</v>
+        <v>0.7039698681715405</v>
       </c>
       <c r="Q7">
-        <v>4.470769023317334</v>
+        <v>2.810824467969778</v>
       </c>
       <c r="R7">
-        <v>40.236921209856</v>
+        <v>25.297420211728</v>
       </c>
       <c r="S7">
-        <v>0.2459877017394051</v>
+        <v>0.1748151035470478</v>
       </c>
       <c r="T7">
-        <v>0.269713537110536</v>
+        <v>0.1955221190238316</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H8">
         <v>2.048396</v>
       </c>
       <c r="I8">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J8">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>1.561161</v>
       </c>
       <c r="O8">
-        <v>0.06557131305193428</v>
+        <v>0.0866987630039939</v>
       </c>
       <c r="P8">
-        <v>0.06729074080499615</v>
+        <v>0.08898963967586941</v>
       </c>
       <c r="Q8">
-        <v>0.3553195497506667</v>
+        <v>0.3553195497506666</v>
       </c>
       <c r="R8">
-        <v>3.197875947756</v>
+        <v>3.197875947755999</v>
       </c>
       <c r="S8">
-        <v>0.01955015769555286</v>
+        <v>0.02209857804703764</v>
       </c>
       <c r="T8">
-        <v>0.02143579595992317</v>
+        <v>0.02471617565931586</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H9">
         <v>2.048396</v>
       </c>
       <c r="I9">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J9">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1120373333333333</v>
+        <v>0.4875800000000001</v>
       </c>
       <c r="N9">
-        <v>0.336112</v>
+        <v>1.46274</v>
       </c>
       <c r="O9">
-        <v>0.01411725323173698</v>
+        <v>0.08123297250985777</v>
       </c>
       <c r="P9">
-        <v>0.01448743945912617</v>
+        <v>0.08337942437678193</v>
       </c>
       <c r="Q9">
-        <v>0.07649894181688889</v>
+        <v>0.3329189738933334</v>
       </c>
       <c r="R9">
-        <v>0.688490476352</v>
+        <v>2.99627076504</v>
       </c>
       <c r="S9">
-        <v>0.004209074274445533</v>
+        <v>0.02070540709928306</v>
       </c>
       <c r="T9">
-        <v>0.004615044990030943</v>
+        <v>0.0231579822862009</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H10">
         <v>2.048396</v>
       </c>
       <c r="I10">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J10">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6083624999999999</v>
+        <v>0.4635505</v>
       </c>
       <c r="N10">
-        <v>1.216725</v>
+        <v>0.927101</v>
       </c>
       <c r="O10">
-        <v>0.07665665732725331</v>
+        <v>0.07722955212156121</v>
       </c>
       <c r="P10">
-        <v>0.0524445118767116</v>
+        <v>0.05284681332235319</v>
       </c>
       <c r="Q10">
-        <v>0.41538910385</v>
+        <v>0.3165116633326667</v>
       </c>
       <c r="R10">
-        <v>2.4923346231</v>
+        <v>1.899069979996</v>
       </c>
       <c r="S10">
-        <v>0.0228552650451698</v>
+        <v>0.01968497849291646</v>
       </c>
       <c r="T10">
-        <v>0.01670645682241455</v>
+        <v>0.01467778862649489</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H11">
         <v>2.048396</v>
       </c>
       <c r="I11">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J11">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1477003333333333</v>
+        <v>0.4141023333333333</v>
       </c>
       <c r="N11">
-        <v>0.443101</v>
+        <v>1.242307</v>
       </c>
       <c r="O11">
-        <v>0.01861096605963455</v>
+        <v>0.06899127006836749</v>
       </c>
       <c r="P11">
-        <v>0.01909898757491034</v>
+        <v>0.07081425445345503</v>
       </c>
       <c r="Q11">
-        <v>0.1008495906662222</v>
+        <v>0.2827485210635555</v>
       </c>
       <c r="R11">
-        <v>0.9076463159960001</v>
+        <v>2.544736689571999</v>
       </c>
       <c r="S11">
-        <v>0.005548879599898517</v>
+        <v>0.01758512939913384</v>
       </c>
       <c r="T11">
-        <v>0.006084076290426112</v>
+        <v>0.01966810472129249</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H12">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I12">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J12">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.547712</v>
+        <v>4.116622666666667</v>
       </c>
       <c r="N12">
-        <v>19.643136</v>
+        <v>12.349868</v>
       </c>
       <c r="O12">
-        <v>0.8250438103294409</v>
+        <v>0.6858474422962195</v>
       </c>
       <c r="P12">
-        <v>0.8466783202842558</v>
+        <v>0.7039698681715405</v>
       </c>
       <c r="Q12">
-        <v>0.479285970688</v>
+        <v>0.9112926430973335</v>
       </c>
       <c r="R12">
-        <v>4.313573736192</v>
+        <v>8.201633787876</v>
       </c>
       <c r="S12">
-        <v>0.02637095626962176</v>
+        <v>0.05667650882510964</v>
       </c>
       <c r="T12">
-        <v>0.02891446947214423</v>
+        <v>0.06338989526368911</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H13">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I13">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J13">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.561161</v>
       </c>
       <c r="O13">
-        <v>0.06557131305193428</v>
+        <v>0.0866987630039939</v>
       </c>
       <c r="P13">
-        <v>0.06729074080499615</v>
+        <v>0.08898963967586941</v>
       </c>
       <c r="Q13">
-        <v>0.03809180801299999</v>
+        <v>0.115197549803</v>
       </c>
       <c r="R13">
-        <v>0.342826272117</v>
+        <v>1.036777948227</v>
       </c>
       <c r="S13">
-        <v>0.002095862313473723</v>
+        <v>0.007164542584092152</v>
       </c>
       <c r="T13">
-        <v>0.002298010973176694</v>
+        <v>0.008013189475365739</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H14">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I14">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J14">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1120373333333333</v>
+        <v>0.4875800000000001</v>
       </c>
       <c r="N14">
-        <v>0.336112</v>
+        <v>1.46274</v>
       </c>
       <c r="O14">
-        <v>0.01411725323173698</v>
+        <v>0.08123297250985777</v>
       </c>
       <c r="P14">
-        <v>0.01448743945912617</v>
+        <v>0.08337942437678193</v>
       </c>
       <c r="Q14">
-        <v>0.008201020762666666</v>
+        <v>0.10793509702</v>
       </c>
       <c r="R14">
-        <v>0.07380918686399998</v>
+        <v>0.9714158731800001</v>
       </c>
       <c r="S14">
-        <v>0.0004512311503466203</v>
+        <v>0.006712864989232344</v>
       </c>
       <c r="T14">
-        <v>0.0004947529846161703</v>
+        <v>0.00750801023930042</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H15">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I15">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J15">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6083624999999999</v>
+        <v>0.4635505</v>
       </c>
       <c r="N15">
-        <v>1.216725</v>
+        <v>0.927101</v>
       </c>
       <c r="O15">
-        <v>0.07665665732725331</v>
+        <v>0.07722955212156121</v>
       </c>
       <c r="P15">
-        <v>0.0524445118767116</v>
+        <v>0.05284681332235319</v>
       </c>
       <c r="Q15">
-        <v>0.04453152663749999</v>
+        <v>0.1026157106345</v>
       </c>
       <c r="R15">
-        <v>0.267189159825</v>
+        <v>0.615694263807</v>
       </c>
       <c r="S15">
-        <v>0.002450184260330596</v>
+        <v>0.006382033557962072</v>
       </c>
       <c r="T15">
-        <v>0.001791005156635615</v>
+        <v>0.004758661006648932</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H16">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I16">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J16">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1477003333333333</v>
+        <v>0.4141023333333333</v>
       </c>
       <c r="N16">
-        <v>0.443101</v>
+        <v>1.242307</v>
       </c>
       <c r="O16">
-        <v>0.01861096605963455</v>
+        <v>0.06899127006836749</v>
       </c>
       <c r="P16">
-        <v>0.01909898757491034</v>
+        <v>0.07081425445345503</v>
       </c>
       <c r="Q16">
-        <v>0.01081151669966667</v>
+        <v>0.09166941942766667</v>
       </c>
       <c r="R16">
-        <v>0.09730365029699999</v>
+        <v>0.8250247748489999</v>
       </c>
       <c r="S16">
-        <v>0.0005948641344246495</v>
+        <v>0.005701245037517443</v>
       </c>
       <c r="T16">
-        <v>0.000652239557755777</v>
+        <v>0.006376562941024779</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H17">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I17">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J17">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.547712</v>
+        <v>4.116622666666667</v>
       </c>
       <c r="N17">
-        <v>19.643136</v>
+        <v>12.349868</v>
       </c>
       <c r="O17">
-        <v>0.8250438103294409</v>
+        <v>0.6858474422962195</v>
       </c>
       <c r="P17">
-        <v>0.8466783202842558</v>
+        <v>0.7039698681715405</v>
       </c>
       <c r="Q17">
-        <v>2.881340308736</v>
+        <v>2.722102330154001</v>
       </c>
       <c r="R17">
-        <v>17.288041852416</v>
+        <v>16.332613980924</v>
       </c>
       <c r="S17">
-        <v>0.1585352042967235</v>
+        <v>0.169297160364924</v>
       </c>
       <c r="T17">
-        <v>0.1158840879850406</v>
+        <v>0.1262337134783431</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H18">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I18">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J18">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.561161</v>
       </c>
       <c r="O18">
-        <v>0.06557131305193428</v>
+        <v>0.0866987630039939</v>
       </c>
       <c r="P18">
-        <v>0.06729074080499615</v>
+        <v>0.08898963967586941</v>
       </c>
       <c r="Q18">
-        <v>0.228997860511</v>
+        <v>0.3441040823955</v>
       </c>
       <c r="R18">
-        <v>1.373987163066</v>
+        <v>2.064624494373</v>
       </c>
       <c r="S18">
-        <v>0.01259976910382727</v>
+        <v>0.0214010485110015</v>
       </c>
       <c r="T18">
-        <v>0.009210022202300794</v>
+        <v>0.01595734872369191</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H19">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I19">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J19">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1120373333333333</v>
+        <v>0.4875800000000001</v>
       </c>
       <c r="N19">
-        <v>0.336112</v>
+        <v>1.46274</v>
       </c>
       <c r="O19">
-        <v>0.01411725323173698</v>
+        <v>0.08123297250985777</v>
       </c>
       <c r="P19">
-        <v>0.01448743945912617</v>
+        <v>0.08337942437678193</v>
       </c>
       <c r="Q19">
-        <v>0.04930236464533332</v>
+        <v>0.3224105684700001</v>
       </c>
       <c r="R19">
-        <v>0.295814187872</v>
+        <v>1.934463410820001</v>
       </c>
       <c r="S19">
-        <v>0.002712682159639903</v>
+        <v>0.02005185224264655</v>
       </c>
       <c r="T19">
-        <v>0.001982882599846989</v>
+        <v>0.01495134215631387</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H20">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I20">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J20">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6083624999999999</v>
+        <v>0.4635505</v>
       </c>
       <c r="N20">
-        <v>1.216725</v>
+        <v>0.927101</v>
       </c>
       <c r="O20">
-        <v>0.07665665732725331</v>
+        <v>0.07722955212156121</v>
       </c>
       <c r="P20">
-        <v>0.0524445118767116</v>
+        <v>0.05284681332235319</v>
       </c>
       <c r="Q20">
-        <v>0.2677117432125</v>
+        <v>0.30652114569825</v>
       </c>
       <c r="R20">
-        <v>1.07084697285</v>
+        <v>1.226084582793</v>
       </c>
       <c r="S20">
-        <v>0.01472985880013743</v>
+        <v>0.01906363290743043</v>
       </c>
       <c r="T20">
-        <v>0.00717803241567938</v>
+        <v>0.009476328168000288</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H21">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I21">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J21">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.1477003333333333</v>
+        <v>0.4141023333333333</v>
       </c>
       <c r="N21">
-        <v>0.443101</v>
+        <v>1.242307</v>
       </c>
       <c r="O21">
-        <v>0.01861096605963455</v>
+        <v>0.06899127006836749</v>
       </c>
       <c r="P21">
-        <v>0.01909898757491034</v>
+        <v>0.07081425445345503</v>
       </c>
       <c r="Q21">
-        <v>0.06499597478433332</v>
+        <v>0.2738237185585</v>
       </c>
       <c r="R21">
-        <v>0.3899758487059999</v>
+        <v>1.642942311351</v>
       </c>
       <c r="S21">
-        <v>0.003576165616278505</v>
+        <v>0.01703006440242662</v>
       </c>
       <c r="T21">
-        <v>0.00261406097632575</v>
+        <v>0.01269819449812257</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H22">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I22">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J22">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.547712</v>
+        <v>4.116622666666667</v>
       </c>
       <c r="N22">
-        <v>19.643136</v>
+        <v>12.349868</v>
       </c>
       <c r="O22">
-        <v>0.8250438103294409</v>
+        <v>0.6858474422962195</v>
       </c>
       <c r="P22">
-        <v>0.8466783202842558</v>
+        <v>0.7039698681715405</v>
       </c>
       <c r="Q22">
-        <v>0.9808559878826665</v>
+        <v>0.8921873973013335</v>
       </c>
       <c r="R22">
-        <v>8.827703890943999</v>
+        <v>8.029686575712001</v>
       </c>
       <c r="S22">
-        <v>0.05396801063490438</v>
+        <v>0.05548828609538084</v>
       </c>
       <c r="T22">
-        <v>0.05917329580394771</v>
+        <v>0.06206092642017995</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H23">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I23">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J23">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>1.561161</v>
       </c>
       <c r="O23">
-        <v>0.06557131305193428</v>
+        <v>0.0866987630039939</v>
       </c>
       <c r="P23">
-        <v>0.06729074080499615</v>
+        <v>0.08898963967586941</v>
       </c>
       <c r="Q23">
-        <v>0.07795466644933331</v>
+        <v>0.112782433736</v>
       </c>
       <c r="R23">
-        <v>0.7015919980439999</v>
+        <v>1.015041903624</v>
       </c>
       <c r="S23">
-        <v>0.004289170194148121</v>
+        <v>0.007014337983932365</v>
       </c>
       <c r="T23">
-        <v>0.004702866265884775</v>
+        <v>0.007845192997289892</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H24">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I24">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J24">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1120373333333333</v>
+        <v>0.4875800000000001</v>
       </c>
       <c r="N24">
-        <v>0.336112</v>
+        <v>1.46274</v>
       </c>
       <c r="O24">
-        <v>0.01411725323173698</v>
+        <v>0.08123297250985777</v>
       </c>
       <c r="P24">
-        <v>0.01448743945912617</v>
+        <v>0.08337942437678193</v>
       </c>
       <c r="Q24">
-        <v>0.01678334191644444</v>
+        <v>0.10567223824</v>
       </c>
       <c r="R24">
-        <v>0.151050077248</v>
+        <v>0.9510501441600001</v>
       </c>
       <c r="S24">
-        <v>0.0009234419590903907</v>
+        <v>0.006572129807634978</v>
       </c>
       <c r="T24">
-        <v>0.001012509143105076</v>
+        <v>0.007350604841432638</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H25">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I25">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J25">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.6083624999999999</v>
+        <v>0.4635505</v>
       </c>
       <c r="N25">
-        <v>1.216725</v>
+        <v>0.927101</v>
       </c>
       <c r="O25">
-        <v>0.07665665732725331</v>
+        <v>0.07722955212156121</v>
       </c>
       <c r="P25">
-        <v>0.0524445118767116</v>
+        <v>0.05284681332235319</v>
       </c>
       <c r="Q25">
-        <v>0.09113351364999997</v>
+        <v>0.100464372764</v>
       </c>
       <c r="R25">
-        <v>0.5468010818999999</v>
+        <v>0.602786236584</v>
       </c>
       <c r="S25">
-        <v>0.005014288024561406</v>
+        <v>0.006248234255699777</v>
       </c>
       <c r="T25">
-        <v>0.003665281772577366</v>
+        <v>0.004658895701968251</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H26">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I26">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J26">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.1477003333333333</v>
+        <v>0.4141023333333333</v>
       </c>
       <c r="N26">
-        <v>0.443101</v>
+        <v>1.242307</v>
       </c>
       <c r="O26">
-        <v>0.01861096605963455</v>
+        <v>0.06899127006836749</v>
       </c>
       <c r="P26">
-        <v>0.01909898757491034</v>
+        <v>0.07081425445345503</v>
       </c>
       <c r="Q26">
-        <v>0.02212570686711111</v>
+        <v>0.08974757049866666</v>
       </c>
       <c r="R26">
-        <v>0.199131361804</v>
+        <v>0.8077281344879998</v>
       </c>
       <c r="S26">
-        <v>0.001217386036544102</v>
+        <v>0.005581718463249508</v>
       </c>
       <c r="T26">
-        <v>0.00133480451105287</v>
+        <v>0.006242878330219762</v>
       </c>
     </row>
   </sheetData>
